--- a/data_output/cation_data.xlsx
+++ b/data_output/cation_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tacaro/Documents/GitHub/Oman-2023/data_output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6125682-A6BD-944E-B8AA-758346E6D50B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F767EC-8997-D840-9949-2FC8E8FAB2D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15120" yWindow="760" windowWidth="15120" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -583,15 +583,21 @@
   <dimension ref="A1:AH12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="176" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AA2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AB8" sqref="AB8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="28" width="9" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="34" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="17" width="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="27" width="9" bestFit="1" customWidth="1"/>
+    <col min="28" max="30" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="34" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" s="1" customFormat="1" ht="64" x14ac:dyDescent="0.2">
